--- a/oauth-server/src/main/resources/organization_template.xlsx
+++ b/oauth-server/src/main/resources/organization_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590"/>
+    <workbookView windowWidth="19890" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -98,8 +98,11 @@
     <t>132127199303080299</t>
   </si>
   <si>
-    <t>1、默认账户名为手机号码,初始密码为123456782
-2、一级部门必填、二级三级部门非必填</t>
+    <t>1、默认账户名为手机号码,初始密码为12345678
+2、系统约定部门最多有三级,所有员工都属于某个部门,一级部门必填
+3、如果填写了一级部门和三级部门，三级部门无效，员工属于一级部门
+4、如果填写了一级部门和二级部门，员工属于二级部门
+5、如果填写了一级部门、二级部门和三级部门，员工属于三级部门</t>
   </si>
 </sst>
 </file>
@@ -107,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,13 +124,12 @@
     <font>
       <sz val="12"/>
       <name val="黑体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,39 +144,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -187,21 +217,45 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -210,59 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,103 +285,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,73 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,17 +494,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,65 +508,6 @@
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,8 +530,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,137 +620,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,15 +761,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1103,7 +1096,7 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1134,151 +1127,151 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>18612345678</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>17712345678</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>17712341678</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>17712345278</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>17712345618</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>17712342678</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1292,7 +1285,7 @@
   <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:M11"/>
     </sheetView>
   </sheetViews>
